--- a/excel/신촌.xlsx
+++ b/excel/신촌.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['월', '17:00 - 05:00'], ['화', '17:00 - 05:00'], ['수', '17:00 - 05:00'], ['목', '17:00 - 05:00'], ['금', '17:00 - 06:00'], ['토', '17:00 - 06:00'], ['일', '17:00 - 05:00']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['화', '17:00 - 05:00'], ['수', '17:00 - 05:00'], ['목', '17:00 - 05:00'], ['금', '17:00 - 06:00'], ['토', '17:00 - 06:00'], ['일', '17:00 - 05:00'], ['월', '17:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,96 +532,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>쿠시노주방</t>
+          <t>브릭스5221맥주 신촌점</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['월', '16:00 - 01:00', '23:30 라스트오더'], ['화', '16:00 - 01:00', '23:30 라스트오더'], ['수', '16:00 - 01:00', '23:30 라스트오더'], ['목', '16:00 - 01:00', '23:30 라스트오더'], ['금', '16:00 - 02:00', '00:30 라스트오더'], ['토', '15:00 - 02:00', '00:30 라스트오더'], ['일', '16:00 - 01:00', '23:30 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>010-7245-0503</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>주무대</t>
+          <t>쿠시노주방</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>010-7245-0503</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>브릭스5221맥주 신촌점</t>
+          <t>주무대</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['월', '16:00 - 01:00', '23:30 라스트오더'], ['화', '16:00 - 01:00', '23:30 라스트오더'], ['수', '16:00 - 01:00', '23:30 라스트오더'], ['목', '16:00 - 01:00', '23:30 라스트오더'], ['금', '16:00 - 02:00', '00:30 라스트오더'], ['토', '15:00 - 02:00', '00:30 라스트오더'], ['일', '16:00 - 01:00', '23:30 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>010-7245-0503</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>010-7245-0503</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
@@ -670,22 +670,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['월', '16:00 - 01:00', '23:30 라스트오더'], ['화', '16:00 - 01:00', '23:30 라스트오더'], ['수', '16:00 - 01:00', '23:30 라스트오더'], ['목', '16:00 - 01:00', '23:30 라스트오더'], ['금', '16:00 - 02:00', '00:30 라스트오더'], ['토', '15:00 - 02:00', '00:30 라스트오더'], ['일', '16:00 - 01:00', '23:30 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>010-7245-0503</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
@@ -702,22 +702,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>010-7245-0503</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
@@ -734,22 +734,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['월', '16:00 - 01:00', '23:30 라스트오더'], ['화', '16:00 - 01:00', '23:30 라스트오더'], ['수', '16:00 - 01:00', '23:30 라스트오더'], ['목', '16:00 - 01:00', '23:30 라스트오더'], ['금', '16:00 - 02:00', '00:30 라스트오더'], ['토', '15:00 - 02:00', '00:30 라스트오더'], ['일', '16:00 - 01:00', '23:30 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>010-7245-0503</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
@@ -766,93 +766,93 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '16:00 - 24:00', '23:30 라스트오더'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '14:00 - 01:00', '00:30 라스트오더'], ['토', '14:00 - 01:00', '00:30 라스트오더'], ['일', '14:00 - 24:00', '23:30 라스트오더'], ['- 매주 월요일 휴무'], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>신촌정직한족발</t>
+          <t>에일크루브루잉 신촌점</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>족발,보쌈</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], [''], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>룸의정석 신촌점</t>
+          <t>보스포차</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '16:00 - 24:00', '23:30 라스트오더'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '14:00 - 01:00', '00:30 라스트오더'], ['토', '14:00 - 01:00', '00:30 라스트오더'], ['일', '14:00 - 24:00', '23:30 라스트오더'], ['- 매주 월요일 휴무'], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>쿠시노주방</t>
+          <t>사케즈키</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -862,29 +862,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], [''], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>주무대</t>
+          <t>청담동포장마차</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -894,29 +894,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '16:00 - 24:00', '23:30 라스트오더'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '14:00 - 01:00', '00:30 라스트오더'], ['토', '14:00 - 01:00', '00:30 라스트오더'], ['일', '14:00 - 24:00', '23:30 라스트오더'], ['- 매주 월요일 휴무'], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>브릭스5221맥주 신촌점</t>
+          <t>아무술집 신촌점</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -926,29 +926,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 서대문구 연세로7길 21 1층 아무술집</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], [''], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1481-8016</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>안테이쿠</t>
+          <t>김씨네심야식당</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -958,29 +958,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 서대문구 연세로7길 21 1층 아무술집</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '16:00 - 24:00', '23:30 라스트오더'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '14:00 - 01:00', '00:30 라스트오더'], ['토', '14:00 - 01:00', '00:30 라스트오더'], ['일', '14:00 - 24:00', '23:30 라스트오더'], ['- 매주 월요일 휴무'], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1481-8016</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>찰리주막 신촌점</t>
+          <t>수지상회 신촌점</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -990,189 +990,189 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7안길 10-5</t>
+          <t>서울 서대문구 연세로7길 21 1층 아무술집</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 05:00'], ['토', '17:00 - 05:00'], ['일', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>02-332-2115</t>
+          <t>0507-1481-8016</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>집시포차</t>
+          <t>쿠마네꼬치</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 02:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>서울 서대문구 연세로7안길 10 2층</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '17:00 - 03:00']]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0507-1343-1497</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>밤말</t>
+          <t>미식가주택</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 220-5 1.5층</t>
+          <t>서울 서대문구 연세로9길 22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0507-1313-5446</t>
+          <t>0507-1329-9808</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>매거진 스탠딩</t>
+          <t>룸의정석 신촌점</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 서대문구 연세로5가길 8-3 2층</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '16:00 - 24:00', '23:30 라스트오더'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '14:00 - 01:00', '00:30 라스트오더'], ['토', '14:00 - 01:00', '00:30 라스트오더'], ['일', '14:00 - 24:00', '23:30 라스트오더'], ['- 매주 월요일 휴무'], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['화', '17:00 - 05:00'], ['수', '17:00 - 05:00'], ['목', '17:00 - 05:00'], ['금', '17:00 - 06:00'], ['토', '17:00 - 06:00'], ['일', '17:00 - 05:00'], ['월', '17:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>070-8839-0808</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>슬슬</t>
+          <t>신촌정직한족발</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>족발,보쌈</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 서대문구 연세로7안길 51 1층</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], [''], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['매일', '16:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1365-4346</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>숲길</t>
+          <t>룸의정석 신촌점</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 서대문구 연세로5가길 8-3 2층</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '16:00 - 24:00', '23:30 라스트오더'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '14:00 - 01:00', '00:30 라스트오더'], ['토', '14:00 - 01:00', '00:30 라스트오더'], ['일', '14:00 - 24:00', '23:30 라스트오더'], ['- 매주 월요일 휴무'], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['화', '17:00 - 05:00'], ['수', '17:00 - 05:00'], ['목', '17:00 - 05:00'], ['금', '17:00 - 06:00'], ['토', '17:00 - 06:00'], ['일', '17:00 - 05:00'], ['월', '17:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>070-8839-0808</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>맥주왕명주</t>
+          <t>브릭스5221맥주 신촌점</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1182,61 +1182,61 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], [''], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>상수소굴</t>
+          <t>쿠시노주방</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '16:00 - 24:00', '23:30 라스트오더'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '14:00 - 01:00', '00:30 라스트오더'], ['토', '14:00 - 01:00', '00:30 라스트오더'], ['일', '14:00 - 24:00', '23:30 라스트오더'], ['- 매주 월요일 휴무'], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>온기</t>
+          <t>주무대</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1246,157 +1246,157 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 마포구 와우산로3길 32</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], [''], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1440-1221</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>스카이문 루프탑</t>
+          <t>안테이쿠</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 마포구 와우산로3길 32</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '16:00 - 24:00', '23:30 라스트오더'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '14:00 - 01:00', '00:30 라스트오더'], ['토', '14:00 - 01:00', '00:30 라스트오더'], ['일', '14:00 - 24:00', '23:30 라스트오더'], ['- 매주 월요일 휴무'], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1440-1221</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>하루</t>
+          <t>찰리주막 신촌점</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 마포구 와우산로3길 32</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], [''], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1440-1221</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>하꼬</t>
+          <t>집시포차</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로7길 34-6 1,2층</t>
+          <t>서울 마포구 와우산로3길 32</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '16:00 - 24:00', '23:30 라스트오더'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '14:00 - 01:00', '00:30 라스트오더'], ['토', '14:00 - 01:00', '00:30 라스트오더'], ['일', '14:00 - 24:00', '23:30 라스트오더'], ['- 매주 월요일 휴무'], ['생방송투데이 2892회, 21.09.08.', '2021년 9월 8일', ' 소고기버섯대창전골']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0507-1360-1026</t>
+          <t>0507-1440-1221</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>심야식당 킨빠</t>
+          <t>밤말</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 82 1층</t>
+          <t>서울 마포구 와우산로3길 32</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['- 일요일 화요일 휴무']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0507-1419-7237</t>
+          <t>0507-1440-1221</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>크래프트한스 연남점</t>
+          <t>매거진 스탠딩</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1406,93 +1406,93 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 82 1층</t>
+          <t>서울 마포구 와우산로3길 32</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0507-1419-7237</t>
+          <t>0507-1440-1221</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>키친31</t>
+          <t>에일크루브루잉 신촌점</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 마포구 와우산로3길 32</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1440-1221</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>연남주막1987</t>
+          <t>보스포차</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>전통,민속주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 서대문구 연세로7길 25 2층</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '16:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1359-5905</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>스탠딩박스</t>
+          <t>사케즈키</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1502,61 +1502,61 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 서대문구 연세로7길 25 2층</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1359-5905</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>역전할머니맥주 신촌점</t>
+          <t>청담동포장마차</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 서대문구 연세로7길 25 2층</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '16:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1359-5905</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>을지OB베어 와우</t>
+          <t>아무술집 신촌점</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1566,157 +1566,157 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 서대문구 연세로7길 25 2층</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1359-5905</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>술익는마을</t>
+          <t>김씨네심야식당</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>전통,민속주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 서대문구 연세로7길 25 2층</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '16:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1359-5905</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>막걸리싸롱</t>
+          <t>수지상회 신촌점</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>전통,민속주점</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 서대문구 연세로7길 25 2층</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1359-5905</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>클럽이스케이프</t>
+          <t>쿠마네꼬치</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 서대문구 연세로7길 25 2층</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1359-5905</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>젊은소나무</t>
+          <t>미식가주택</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 서대문구 연세로7길 25 2층</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '16:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1359-5905</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>이찌방이야기 신촌점</t>
+          <t>룸의정석 신촌점</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1726,29 +1726,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 서대문구 연세로7길 25 2층</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1359-5905</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>홍대원조낙곱새</t>
+          <t>신촌에가면 광대포차</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1758,253 +1758,253 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 서대문구 연세로7길 25 2층</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '16:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1359-5905</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>담</t>
+          <t>역전포장마차 신촌점</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 서대문구 연세로7길 25 2층</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1359-5905</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>올드패션드</t>
+          <t>브릭스5221맥주 신촌점</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>서울 서대문구 연세로4길 52 1층 키친31</t>
+          <t>서울 서대문구 연세로7길 25 2층</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '16:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0507-1331-6709</t>
+          <t>0507-1359-5905</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>으네네 포차</t>
+          <t>집시포차</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>서울 마포구 신촌로14길 37 1층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '18:00 - 02:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0507-1332-8843</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>미스터유</t>
+          <t>기중상점</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>서울 마포구 신촌로14길 37 1층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0507-1332-8843</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>펀비어킹 신촌 유플렉스점</t>
+          <t>프라이빗 신촌점</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>서울 마포구 신촌로14길 37 1층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '18:00 - 02:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0507-1332-8843</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>두꺼비숙성횟집 홍대본점</t>
+          <t>장미맨숀 신촌점</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>서울 마포구 신촌로14길 37 1층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0507-1332-8843</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>청춘술방</t>
+          <t>교토우마이</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>서울 마포구 신촌로14길 37 1층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '18:00 - 02:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0507-1332-8843</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>설맥 신촌점</t>
+          <t>건어물녀</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2014,54 +2014,3574 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>서울 마포구 신촌로14길 37 1층</t>
+          <t>서울 서대문구 연세로9길 10-3</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0507-1332-8843</t>
+          <t>0507-1335-7132</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>아무 (Amu)</t>
+          <t>수달산장</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 10-3</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0507-1335-7132</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>슬슬</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로1길 23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '16:00 - 23:00'], ['일', '16:00 - 23:00'], ['월', '17:00 - 23:00'], ['- 휴무는 인스타공지 ☆ 148_2seulseul']]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>010-3907-0093</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>숲길</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로37길 11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '15:00 - 01:00'], ['수', '15:00 - 01:00'], ['목', '15:00 - 01:00'], ['금', '15:00 - 02:00'], ['토', '13:00 - 02:00'], ['일', '13:00 - 02:00'], ['월', '15:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>02-322-6080</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>맥주왕명주</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더'], ['매일', '17:30 - 04:00', '03:30 라스트오더'], ['- 연중무휴!']]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>온기</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>상수소굴</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더'], ['매일', '17:30 - 04:00', '03:30 라스트오더'], ['- 연중무휴!']]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>스카이문 루프탑</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>서울 마포구 신촌로14길 37 1층</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '18:00 - 02:00']]</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0507-1332-8843</t>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>하루</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더'], ['매일', '17:30 - 04:00', '03:30 라스트오더'], ['- 연중무휴!']]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>하꼬</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>심야식당 킨빠</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더'], ['매일', '17:30 - 04:00', '03:30 라스트오더'], ['- 연중무휴!']]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>크래프트한스 연남점</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>무채색 숲</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더'], ['매일', '17:30 - 04:00', '03:30 라스트오더'], ['- 연중무휴!']]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>무채색</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>하나킨</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더'], ['매일', '17:30 - 04:00', '03:30 라스트오더'], ['- 연중무휴!']]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>무명요리사</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>불나방</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더'], ['매일', '17:30 - 04:00', '03:30 라스트오더'], ['- 연중무휴!']]</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>준지의아름다운하루 연남점</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로2길 81 2층</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0507-1403-0710</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>세븐펍</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 209-4 지하 1층</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '18:00 - 04:00', '03:30 라스트오더'], ['토', '18:00 - 04:00', '03:30 라스트오더'], ['일', '18:00 - 02:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0507-1385-6177</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '18:00 - 24:00'], ['수', '17:30 - 00:30'], ['목', '17:30 - 00:30'], ['금', '17:30 - 00:30'], ['토', '17:30 - 01:00'], ['일', '17:30 - 24:00'], ['월', '17:30 - 00:30']]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>백해</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>연술집</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '18:00 - 24:00'], ['수', '17:30 - 00:30'], ['목', '17:30 - 00:30'], ['금', '17:30 - 00:30'], ['토', '17:30 - 01:00'], ['일', '17:30 - 24:00'], ['월', '17:30 - 00:30']]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>동백상회</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>미드나잇 키친 연남점</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '18:00 - 24:00'], ['수', '17:30 - 00:30'], ['목', '17:30 - 00:30'], ['금', '17:30 - 00:30'], ['토', '17:30 - 01:00'], ['일', '17:30 - 24:00'], ['월', '17:30 - 00:30']]</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>곤밥</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>호돌이 호프</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '18:00 - 24:00'], ['수', '17:30 - 00:30'], ['목', '17:30 - 00:30'], ['금', '17:30 - 00:30'], ['토', '17:30 - 01:00'], ['일', '17:30 - 24:00'], ['월', '17:30 - 00:30']]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>술로름</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>모모키친</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '18:00 - 24:00'], ['수', '17:30 - 00:30'], ['목', '17:30 - 00:30'], ['금', '17:30 - 00:30'], ['토', '17:30 - 01:00'], ['일', '17:30 - 24:00'], ['월', '17:30 - 00:30']]</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>에어플레인모드</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>카시</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '18:00 - 24:00'], ['수', '17:30 - 00:30'], ['목', '17:30 - 00:30'], ['금', '17:30 - 00:30'], ['토', '17:30 - 01:00'], ['일', '17:30 - 24:00'], ['월', '17:30 - 00:30']]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>더파이브올스</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>디퍼 루프탑</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '18:00 - 24:00'], ['수', '17:30 - 00:30'], ['목', '17:30 - 00:30'], ['금', '17:30 - 00:30'], ['토', '17:30 - 01:00'], ['일', '17:30 - 24:00'], ['월', '17:30 - 00:30']]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0507-1307-5241</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>딤</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29길 48-5 2층</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수(7/12)', '휴무'], ['목', '19:30 - 24:00', '23:30 라스트오더'], ['금', '19:30 - 24:00', '23:30 라스트오더'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['일', '17:00 - 23:00', '22:30 라스트오더'], ['월', '19:30 - 24:00', '23:30 라스트오더'], ['접기']]</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>010-4895-3005</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>연어상회 신촌점</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로12길 20 현석빌딩 1층 연어상회</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '11:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0507-1324-3177</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>키친31</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로12길 20 현석빌딩 1층 연어상회</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0507-1324-3177</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>역전할머니맥주 신촌점</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로12길 20 현석빌딩 1층 연어상회</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '11:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0507-1324-3177</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>을지OB베어 와우</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로12길 20 현석빌딩 1층 연어상회</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0507-1324-3177</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>스탠딩박스</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로12길 20 현석빌딩 1층 연어상회</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '11:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0507-1324-3177</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>술익는마을</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '15:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>02-338-1190</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>클럽이스케이프</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 22</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>02-338-1190</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>막걸리싸롱</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 22</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '15:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>02-338-1190</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>젊은소나무</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 22</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>02-338-1190</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>히까루</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 22</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '15:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>02-338-1190</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>이찌방이야기 신촌점</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 22</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>02-338-1190</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>신촌관</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '15:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>02-338-1190</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>준코 연세대점</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 22</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>02-338-1190</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>낙원스낵 신촌점</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로4길 7</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>연</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>오롯</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>올그릭투미</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>52nd Street</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>홍대 달동네</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>바 틸트</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>송학</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>토리호람</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>향꽃</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>우드스탁</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>쉬바펍</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>루프탑 투게더</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>고요</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>한식탁</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>담</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>꽁술</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>계단집</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>바플라이 1호점 : 별밤</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>거품1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>피망과토마토</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>링마이보틀</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>살롱드느루</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>오퍼스</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>바코드</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>뚜이연남</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5가길 17</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0507-1431-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>인쌩맥주 신촌점</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7안길 4 1층</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 라스트오더', '5시 0분에 라스트오더'], ['매일', '17:00 - 06:00', '05:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0507-1383-5705</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>이자카야 류</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 35 2층</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 04:00'], ['토', '18:00 - 04:00'], ['일', '18:00 - 24:00'], ['월', '18:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>02-337-1660</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>으네네 포차</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 35 2층</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>02-337-1660</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>청춘술방</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 35 2층</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 04:00'], ['토', '18:00 - 04:00'], ['일', '18:00 - 24:00'], ['월', '18:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>02-337-1660</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>아마이</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 35 2층</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>02-337-1660</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>미스터유</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로11길 35 2층</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 04:00'], ['토', '18:00 - 04:00'], ['일', '18:00 - 24:00'], ['월', '18:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>02-337-1660</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>두꺼비숙성횟집 홍대본점</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 146-1</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['화', '17:30 - 02:30', '01:30 라스트오더'], ['수', '17:30 - 02:30', '01:30 라스트오더'], ['목', '17:30 - 02:30', '01:30 라스트오더'], ['금', '17:30 - 03:30', '02:30 라스트오더'], ['토', '17:30 - 03:30', '02:30 라스트오더'], ['일', '17:30 - 02:30', '01:30 라스트오더'], ['월', '17:30 - 02:30', '01:30 라스트오더'], ['- 금,토,공휴일 전일17:30~03:30까지 운영합니다']]</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>02-336-5215</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>꼼보포차 신촌2호점</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 146-1</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>02-336-5215</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>동화소</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 146-1</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['화', '17:30 - 02:30', '01:30 라스트오더'], ['수', '17:30 - 02:30', '01:30 라스트오더'], ['목', '17:30 - 02:30', '01:30 라스트오더'], ['금', '17:30 - 03:30', '02:30 라스트오더'], ['토', '17:30 - 03:30', '02:30 라스트오더'], ['일', '17:30 - 02:30', '01:30 라스트오더'], ['월', '17:30 - 02:30', '01:30 라스트오더'], ['- 금,토,공휴일 전일17:30~03:30까지 운영합니다']]</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>02-336-5215</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>펀비어킹 신촌 유플렉스점</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 146-1</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>02-336-5215</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>레이지리자드</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 146-1</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['화', '17:30 - 02:30', '01:30 라스트오더'], ['수', '17:30 - 02:30', '01:30 라스트오더'], ['목', '17:30 - 02:30', '01:30 라스트오더'], ['금', '17:30 - 03:30', '02:30 라스트오더'], ['토', '17:30 - 03:30', '02:30 라스트오더'], ['일', '17:30 - 02:30', '01:30 라스트오더'], ['월', '17:30 - 02:30', '01:30 라스트오더'], ['- 금,토,공휴일 전일17:30~03:30까지 운영합니다']]</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>02-336-5215</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>홍대원조낙곱새</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 37 올림피아 빌딩 1층 104호</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수(7/12)', '휴무'], ['목', '12:00 - 23:00', '22:30 라스트오더'], ['금', '12:00 - 23:00', '22:30 라스트오더'], ['토', '12:00 - 23:00', '22:30 라스트오더'], ['일', '12:00 - 23:00', '22:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['접기']]</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>02-336-6667</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>야키토리연</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로7길 16-5 1층</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 03:00', '02:00 라스트오더'], ['목', '17:00 - 03:00', '02:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 03:00', '02:00 라스트오더'], ['월', '17:00 - 03:00', '02:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0507-1325-6349</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>설맥 신촌점</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>서울 서대문구 신촌로 63 1층 106호, 107호, 108호, 109호</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>02-336-6193</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>올드패션드</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>서울 마포구 신촌로2안길 44 1층 101호</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['매일', '19:00 - 02:00', '01:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0507-1329-2180</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>노보카인</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 36 노보카인</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '18:00 - 03:00'], ['수', '18:00 - 03:00'], ['목', '18:00 - 03:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>070-8650-7776</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>투다리 신촌2점</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>가막새</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>상수주택</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>오늘와인한잔 연대가든점</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>보헤미안PJ music pub</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>바프로</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Day 1</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>엔터엘피바</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>더빠</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>다모토리</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>비어어클락</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>치즈문</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>투다리 신촌1호점</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>비틀즈</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>로실링</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>젊음의행진</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>포루</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>신조이자카야</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>진화로</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>깃털</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>친구친구</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>크라운호프 신촌점</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>투비위드유2</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 17 2F</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>02-326-0359</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>해신포차</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로9길 28</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '15:00 - 05:00'], ['목', '15:00 - 05:00'], ['금', '15:00 - 05:00'], ['토', '11:30 - 05:00'], ['일', '11:30 - 05:00'], ['월', '15:00 - 05:00'], ['- 휴무일은 가끔 변경 될수 있습니다~ 전화 주세요~^^'], ['생방송오늘저녁 748회, 17.12.18.', '2017년 12월 18일', ' 굴/조개', '펼쳐보기'], [''], ['']]</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>02-322-6957</t>
         </is>
       </c>
     </row>
